--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col9a2-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col9a2-Mag.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.159112</v>
+        <v>0.005673666666666667</v>
       </c>
       <c r="H2">
-        <v>0.477336</v>
+        <v>0.017021</v>
       </c>
       <c r="I2">
-        <v>0.09257849183497176</v>
+        <v>0.003624806445217209</v>
       </c>
       <c r="J2">
-        <v>0.09257849183497174</v>
+        <v>0.003624806445217209</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09045733333333333</v>
+        <v>0.00535</v>
       </c>
       <c r="N2">
-        <v>0.271372</v>
+        <v>0.01605</v>
       </c>
       <c r="O2">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="P2">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="Q2">
-        <v>0.01439284722133333</v>
+        <v>3.035411666666667E-05</v>
       </c>
       <c r="R2">
-        <v>0.129535624992</v>
+        <v>0.00027318705</v>
       </c>
       <c r="S2">
-        <v>0.005318552769250659</v>
+        <v>1.301998948738505E-05</v>
       </c>
       <c r="T2">
-        <v>0.005318552769250658</v>
+        <v>1.301998948738505E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.159112</v>
+        <v>0.005673666666666667</v>
       </c>
       <c r="H3">
-        <v>0.477336</v>
+        <v>0.017021</v>
       </c>
       <c r="I3">
-        <v>0.09257849183497176</v>
+        <v>0.003624806445217209</v>
       </c>
       <c r="J3">
-        <v>0.09257849183497174</v>
+        <v>0.003624806445217209</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.452321</v>
       </c>
       <c r="O3">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="P3">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="Q3">
-        <v>0.236139232984</v>
+        <v>0.008420328415666667</v>
       </c>
       <c r="R3">
-        <v>2.125253096856</v>
+        <v>0.075782955741</v>
       </c>
       <c r="S3">
-        <v>0.08725993906572109</v>
+        <v>0.003611786455729824</v>
       </c>
       <c r="T3">
-        <v>0.08725993906572108</v>
+        <v>0.003611786455729824</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>4.13749</v>
       </c>
       <c r="I4">
-        <v>0.8024590313369979</v>
+        <v>0.8811233428718493</v>
       </c>
       <c r="J4">
-        <v>0.8024590313369979</v>
+        <v>0.8811233428718493</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.09045733333333333</v>
+        <v>0.00535</v>
       </c>
       <c r="N4">
-        <v>0.271372</v>
+        <v>0.01605</v>
       </c>
       <c r="O4">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="P4">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="Q4">
-        <v>0.1247554373644444</v>
+        <v>0.007378523833333333</v>
       </c>
       <c r="R4">
-        <v>1.12279893628</v>
+        <v>0.06640671449999999</v>
       </c>
       <c r="S4">
-        <v>0.04610056416705823</v>
+        <v>0.003164918412793652</v>
       </c>
       <c r="T4">
-        <v>0.04610056416705823</v>
+        <v>0.003164918412793652</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.13749</v>
       </c>
       <c r="I5">
-        <v>0.8024590313369979</v>
+        <v>0.8811233428718493</v>
       </c>
       <c r="J5">
-        <v>0.8024590313369979</v>
+        <v>0.8811233428718493</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,10 +744,10 @@
         <v>4.452321</v>
       </c>
       <c r="O5">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="P5">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="Q5">
         <v>2.046825957143333</v>
@@ -756,10 +756,10 @@
         <v>18.42143361429</v>
       </c>
       <c r="S5">
-        <v>0.7563584671699397</v>
+        <v>0.8779584244590557</v>
       </c>
       <c r="T5">
-        <v>0.7563584671699397</v>
+        <v>0.8779584244590557</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.541188</v>
       </c>
       <c r="I6">
-        <v>0.1049624768280303</v>
+        <v>0.1152518506829335</v>
       </c>
       <c r="J6">
-        <v>0.1049624768280303</v>
+        <v>0.1152518506829335</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.09045733333333333</v>
+        <v>0.00535</v>
       </c>
       <c r="N6">
-        <v>0.271372</v>
+        <v>0.01605</v>
       </c>
       <c r="O6">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="P6">
-        <v>0.0574491187297735</v>
+        <v>0.003591913026022235</v>
       </c>
       <c r="Q6">
-        <v>0.016318141104</v>
+        <v>0.0009651185999999999</v>
       </c>
       <c r="R6">
-        <v>0.146863269936</v>
+        <v>0.008686067399999999</v>
       </c>
       <c r="S6">
-        <v>0.006030001793464614</v>
+        <v>0.0004139746237411984</v>
       </c>
       <c r="T6">
-        <v>0.006030001793464614</v>
+        <v>0.0004139746237411984</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.541188</v>
       </c>
       <c r="I7">
-        <v>0.1049624768280303</v>
+        <v>0.1152518506829335</v>
       </c>
       <c r="J7">
-        <v>0.1049624768280303</v>
+        <v>0.1152518506829335</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>4.452321</v>
       </c>
       <c r="O7">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="P7">
-        <v>0.9425508812702265</v>
+        <v>0.9964080869739778</v>
       </c>
       <c r="Q7">
         <v>0.267726966372</v>
@@ -880,10 +880,10 @@
         <v>2.409542697348</v>
       </c>
       <c r="S7">
-        <v>0.09893247503456572</v>
+        <v>0.1148378760591923</v>
       </c>
       <c r="T7">
-        <v>0.09893247503456572</v>
+        <v>0.1148378760591923</v>
       </c>
     </row>
   </sheetData>
